--- a/Excel/Vaja2/rezultati.xlsx
+++ b/Excel/Vaja2/rezultati.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Rezultati" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -902,9 +903,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,6 +972,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1019,7 +1020,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="8"/>
@@ -1030,43 +1031,6 @@
         <b/>
         <i val="0"/>
         <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1703,6 +1667,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Skupina</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1799,6 +1788,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Povprečje</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1872,6 +1886,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3045,16 +3091,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3366,7 +3412,7 @@
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3378,40 +3424,40 @@
   <sheetData>
     <row r="1" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>2000</v>
       </c>
     </row>
@@ -3422,28 +3468,28 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>93</v>
       </c>
-      <c r="F4" s="11" t="str">
+      <c r="F4" s="10" t="str">
         <f>IF(E4&gt;50,"da","ne")</f>
         <v>da</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <f>COUNTIF(D4:D31,"=A")</f>
         <v>9</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <f>AVERAGEIF(D4:D31,"=A",E4:E31)</f>
         <v>58.222222222222221</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>66.84</v>
       </c>
     </row>
@@ -3454,28 +3500,28 @@
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <v>94</v>
       </c>
-      <c r="F5" s="25" t="str">
+      <c r="F5" s="24" t="str">
         <f t="shared" ref="F5:F31" si="0">IF(E5&gt;50,"da","ne")</f>
         <v>da</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <f>COUNTIF(D4:D31,"=B")</f>
         <v>12</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <f>AVERAGEIF(D4:D31,"=B",E4:E31)</f>
         <v>66.5</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>52.35</v>
       </c>
     </row>
@@ -3486,28 +3532,28 @@
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>44</v>
       </c>
-      <c r="F6" s="25" t="str">
+      <c r="F6" s="24" t="str">
         <f t="shared" si="0"/>
         <v>ne</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <f>COUNTIF(D4:D31,"=C")</f>
         <v>7</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="31">
         <f>AVERAGEIF(D4:D31,"=C",E4:E31)</f>
         <v>47.714285714285715</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="23">
         <v>49.66</v>
       </c>
     </row>
@@ -3518,13 +3564,13 @@
       <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>34</v>
       </c>
-      <c r="F7" s="25" t="str">
+      <c r="F7" s="24" t="str">
         <f t="shared" si="0"/>
         <v>ne</v>
       </c>
@@ -3536,13 +3582,13 @@
       <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>67</v>
       </c>
-      <c r="F8" s="25" t="str">
+      <c r="F8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>da</v>
       </c>
@@ -3554,13 +3600,13 @@
       <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>42</v>
       </c>
-      <c r="F9" s="25" t="str">
+      <c r="F9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>ne</v>
       </c>
@@ -3572,13 +3618,13 @@
       <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <v>64</v>
       </c>
-      <c r="F10" s="25" t="str">
+      <c r="F10" s="24" t="str">
         <f t="shared" si="0"/>
         <v>da</v>
       </c>
@@ -3590,13 +3636,13 @@
       <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <v>30</v>
       </c>
-      <c r="F11" s="25" t="str">
+      <c r="F11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>ne</v>
       </c>
@@ -3608,13 +3654,13 @@
       <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <v>70</v>
       </c>
-      <c r="F12" s="25" t="str">
+      <c r="F12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>da</v>
       </c>
@@ -3626,13 +3672,13 @@
       <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>58</v>
       </c>
-      <c r="F13" s="25" t="str">
+      <c r="F13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>da</v>
       </c>
@@ -3644,13 +3690,13 @@
       <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <v>66</v>
       </c>
-      <c r="F14" s="25" t="str">
+      <c r="F14" s="24" t="str">
         <f t="shared" si="0"/>
         <v>da</v>
       </c>
@@ -3662,13 +3708,13 @@
       <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>46</v>
       </c>
-      <c r="F15" s="25" t="str">
+      <c r="F15" s="24" t="str">
         <f t="shared" si="0"/>
         <v>ne</v>
       </c>
@@ -3680,13 +3726,13 @@
       <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <v>39</v>
       </c>
-      <c r="F16" s="25" t="str">
+      <c r="F16" s="24" t="str">
         <f t="shared" si="0"/>
         <v>ne</v>
       </c>
@@ -3698,13 +3744,13 @@
       <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>36</v>
       </c>
-      <c r="F17" s="25" t="str">
+      <c r="F17" s="24" t="str">
         <f t="shared" si="0"/>
         <v>ne</v>
       </c>
@@ -3716,13 +3762,13 @@
       <c r="C18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <v>77</v>
       </c>
-      <c r="F18" s="25" t="str">
+      <c r="F18" s="24" t="str">
         <f t="shared" si="0"/>
         <v>da</v>
       </c>
@@ -3734,13 +3780,13 @@
       <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="28">
         <v>100</v>
       </c>
-      <c r="F19" s="25" t="str">
+      <c r="F19" s="24" t="str">
         <f t="shared" si="0"/>
         <v>da</v>
       </c>
@@ -3752,13 +3798,13 @@
       <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <v>26</v>
       </c>
-      <c r="F20" s="25" t="str">
+      <c r="F20" s="24" t="str">
         <f t="shared" si="0"/>
         <v>ne</v>
       </c>
@@ -3770,13 +3816,13 @@
       <c r="C21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <v>86</v>
       </c>
-      <c r="F21" s="25" t="str">
+      <c r="F21" s="24" t="str">
         <f t="shared" si="0"/>
         <v>da</v>
       </c>
@@ -3788,13 +3834,13 @@
       <c r="C22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="29">
         <v>90</v>
       </c>
-      <c r="F22" s="25" t="str">
+      <c r="F22" s="24" t="str">
         <f t="shared" si="0"/>
         <v>da</v>
       </c>
@@ -3806,13 +3852,13 @@
       <c r="C23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="28">
         <v>44</v>
       </c>
-      <c r="F23" s="25" t="str">
+      <c r="F23" s="24" t="str">
         <f t="shared" si="0"/>
         <v>ne</v>
       </c>
@@ -3824,13 +3870,13 @@
       <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="29">
         <v>57</v>
       </c>
-      <c r="F24" s="25" t="str">
+      <c r="F24" s="24" t="str">
         <f t="shared" si="0"/>
         <v>da</v>
       </c>
@@ -3842,13 +3888,13 @@
       <c r="C25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="28">
         <v>43</v>
       </c>
-      <c r="F25" s="25" t="str">
+      <c r="F25" s="24" t="str">
         <f t="shared" si="0"/>
         <v>ne</v>
       </c>
@@ -3860,13 +3906,13 @@
       <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="29">
         <v>85</v>
       </c>
-      <c r="F26" s="25" t="str">
+      <c r="F26" s="24" t="str">
         <f t="shared" si="0"/>
         <v>da</v>
       </c>
@@ -3878,13 +3924,13 @@
       <c r="C27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="28">
         <v>76</v>
       </c>
-      <c r="F27" s="25" t="str">
+      <c r="F27" s="24" t="str">
         <f t="shared" si="0"/>
         <v>da</v>
       </c>
@@ -3896,13 +3942,13 @@
       <c r="C28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="29">
         <v>34</v>
       </c>
-      <c r="F28" s="25" t="str">
+      <c r="F28" s="24" t="str">
         <f t="shared" si="0"/>
         <v>ne</v>
       </c>
@@ -3914,13 +3960,13 @@
       <c r="C29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="28">
         <v>79</v>
       </c>
-      <c r="F29" s="25" t="str">
+      <c r="F29" s="24" t="str">
         <f t="shared" si="0"/>
         <v>da</v>
       </c>
@@ -3932,13 +3978,13 @@
       <c r="C30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="29">
         <v>38</v>
       </c>
-      <c r="F30" s="25" t="str">
+      <c r="F30" s="24" t="str">
         <f t="shared" si="0"/>
         <v>ne</v>
       </c>
@@ -3950,13 +3996,13 @@
       <c r="C31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="30">
         <v>38</v>
       </c>
-      <c r="F31" s="16" t="str">
+      <c r="F31" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ne</v>
       </c>
@@ -3969,18 +4015,18 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E31">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>"IF(""&lt;50"")"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>49</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C31">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$E4:$E$31 &lt;50</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/Vaja2/rezultati.xlsx
+++ b/Excel/Vaja2/rezultati.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\RP\Excel\Vaja2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gits\RP\Excel\Vaja2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB9B8A2-35D0-4264-BEB3-723851504BDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rezultati" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -223,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1096,7 +1106,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1122,7 +1131,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sl-SI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1290,7 +1299,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="sl-SI"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1316,9 +1325,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1383,7 +1390,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -1409,7 +1415,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sl-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1439,7 +1445,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sl-SI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1495,7 +1501,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1521,7 +1526,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sl-SI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1692,7 +1697,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1718,7 +1722,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="sl-SI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1756,7 +1760,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="900104704"/>
@@ -1813,7 +1817,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1839,7 +1842,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="sl-SI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1871,7 +1874,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="900103392"/>
@@ -1888,7 +1891,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1914,7 +1916,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sl-SI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1944,7 +1946,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sl-SI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3061,20 +3063,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3092,19 +3100,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3198,6 +3212,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3233,6 +3264,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3408,11 +3456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
